--- a/agencies.xlsx
+++ b/agencies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,51 +453,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Akkodis Germany Tech Freelance GmbH</t>
+          <t>1st solution consulting GmbH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dominik Motzny</t>
+          <t>Francesca Hameister</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dominik.Motzny@modis.com</t>
+          <t>F.Hameister@1st-solution-group.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amoria Bond GmbH</t>
+          <t>AKKODIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas Uttecht</t>
+          <t>Valerie Dziwok</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thomas.Uttecht@amoriabond.com</t>
+          <t>valerie.dziwok.38012.12891@akkodis.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amoria Bond GmbH</t>
+          <t>AKKODIS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berna Akpolat</t>
+          <t>Stjepan Markanovic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Berna.akpolat@amoriabond.com</t>
+          <t>Stjepan.MARKANOVIC.49716.12891@akkodis.aplitrak.com</t>
         </is>
       </c>
     </row>
@@ -509,1268 +509,1710 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lisa Kalbhenn</t>
+          <t>Artur Ament</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lisa.Kalbhenn@amoriabond.com</t>
+          <t>artur.ament@amoriabond.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLUECHILLED GROUP GmbH &amp; Co. KG</t>
+          <t>Amoria Bond GmbH</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lennart Elias</t>
+          <t>Malte Fuessel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>l.elias@bluechilled-group.de</t>
+          <t>malte.fuessel@amoriabond.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brownian Motion Consulting GmbH</t>
+          <t>Asap Staffing Ltd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Christian Odry</t>
+          <t>Mr Joel Richards</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>consulting@bmcon.eu</t>
+          <t>joel@asapstaffing.co.uk</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Constaff GmbH</t>
+          <t>Asinel Consulting</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andreas Bender</t>
+          <t>Laura Engel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>andreas.bender@constaff.com</t>
+          <t>projects@asinel-consulting.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Contractor Consulting GmbH</t>
+          <t>Bosshard &amp; Partner Unternehmensberatung AG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Christin Stumpe</t>
+          <t>Wan Hamed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>christin.stumpe@contractor.de</t>
+          <t>wan.hamed@bosshardpartner.ch</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Contractor Consulting GmbH</t>
+          <t>CENTOMO GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lona Giernat</t>
+          <t>Julius Schäfer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lona.giernat@contractor.de</t>
+          <t>julius.schaefer@centomo.de</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Corporate Connect GmbH</t>
+          <t>Cegeka Deutschland GmbH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Niklas Kruschwitz</t>
+          <t>Maximilian Kamphausen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Niklas.Kruschwitz@corporate-connect.com</t>
+          <t>maximilian.kamphausen@cegeka.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Corporate Connect GmbH</t>
+          <t>Cegeka Deutschland GmbH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Simon Ens</t>
+          <t>Dipl. Wirt.-Ing. (FH) Susanne Karopka</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>simon.ens@corporate-connect.com</t>
+          <t>susanne.karopka@cegeka.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Etengo AG</t>
+          <t>CompuSafe Data Systems AG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Estelle Kasimatis</t>
+          <t>Marc Buchheit</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>estelle.kasimatis@etengo.de</t>
+          <t>info@compusafe.de</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Finatal</t>
+          <t>Computer Futures, part of SThree</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Achim Knobelspies</t>
+          <t>Markus Kopriwa</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>achim.knobelspies@finatal.com</t>
+          <t>mrkp.96082.1200@sthreede2.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Grey Solutions GmbH</t>
+          <t>Computer Futures, part of SThree</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maike Schmitz</t>
+          <t>Moritz Müller</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>partnersuccess@greysolutions.de</t>
+          <t>m.mueller@computerfutures.de</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HR Solutions Services GmbH</t>
+          <t>Computer Futures, part of SThree</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Olga Krauter</t>
+          <t>Julia Mampaso</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>recruiting@hr-solutions.de</t>
+          <t>jimo.89994.1200@sthreede2.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Halian GmbH</t>
+          <t>Computer Futures, part of SThree</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Halil Coskun</t>
+          <t>Robin Wirfler</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Halil.Coskun@halian.com</t>
+          <t>ROWR.96617.1200@sthreeusa2.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Concord Cobalt Recruitment GmbH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Jan Schwill</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positionen@hays.de</t>
+          <t>jschwill@concordcobalt.de</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Constaff GmbH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liesa Kasler</t>
+          <t>Michelle Maggio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>liesa.kasler@hays.de</t>
+          <t>michelle.maggio@constaff.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Constaff GmbH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Torben Braemer</t>
+          <t>Annika Kärcher</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>torben.braemer@hays.de</t>
+          <t>annika.kaercher@constaff.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Constaff GmbH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Karolina Kuzma</t>
+          <t>Ann-Kathrin Gelb</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>karolina.kuzma@hays.de</t>
+          <t>ann-kathrin.gelb@constaff.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Constaff GmbH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Marcel Küllenberg</t>
+          <t>Christopher Haas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>marcel.kuellenberg@hays.de</t>
+          <t>christopher.haas@constaff.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hays Österreich GmbH</t>
+          <t>Contractor Consulting GmbH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Patrick Thomas Marolt</t>
+          <t>Lona Giernat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>patrick.marolt@hays.at</t>
+          <t>lona.giernat@contractor.de</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hays Österreich GmbH</t>
+          <t>Cunz-IT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hays AG</t>
+          <t>Jamie Eksikli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positionen@hays.at</t>
+          <t>profile@cunz-it.de</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Knieper Consulting GmbH</t>
+          <t>DIGIT4U Business Solutions GmbH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Marcel Herrera-Becker</t>
+          <t>Team Recruiting</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Marcel.herrera-becker@knieper-consulting.com</t>
+          <t>Bewerbung@digit4u-bs.de</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LHH Recruitment Solutions</t>
+          <t>Digitale Denkart Staffing GmbH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Eray Tufioglu</t>
+          <t>Irma Keupp</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>eray.tufioglu@lhh.com</t>
+          <t>ikeupp@digitaledenkart.de</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NEO - Professional Solutions GmbH</t>
+          <t>Etengo AG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Paula Heinemann</t>
+          <t>Yad Hussein</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>p.heinemann@neo-experts.com</t>
+          <t>yad.hussein@etengo.de</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NEO - Professional Solutions GmbH</t>
+          <t>Etengo AG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Volkan Alpaslan</t>
+          <t>Estelle Kasimatis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>v.alpaslan@neo-experts.com</t>
+          <t>estelle.kasimatis@etengo.de</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Outvise</t>
+          <t>Halian GmbH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sophie Hindennach</t>
+          <t>Halil Coskun</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>shindennach@outvise.com</t>
+          <t>Halil.Coskun@halian.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Progressive, ein Geschäftszweig der SThree GmbH</t>
+          <t>Hays AG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jessica Wächter</t>
+          <t>Hays AG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>j.waechter@progressive.de</t>
+          <t>positionen@hays.de</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>Hays AG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anna Avagyan</t>
+          <t>Liesa Kasler</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aavagyan@redglobal.com</t>
+          <t>liesa.kasler@hays.de</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>Hays AG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Yiwei Pan</t>
+          <t>Noel Shahim Schulz</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ypan@redglobal.com</t>
+          <t>noel.schulz@hays.de</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>Hays AG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lija Jacob</t>
+          <t>Hendrik Trümpler</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ljacob@redglobal.com</t>
+          <t>hendrik.truempler@hays.de</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>Hays Österreich GmbH</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ulla Stader</t>
+          <t>Philip Jabri</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ustader@redglobal.com</t>
+          <t>philip.jabri@hays.at</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>ICM Image &amp; Concepts Management AG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Melina Nestoras</t>
+          <t>Laszlo Kapitany</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>mnestoras@redglobal.com</t>
+          <t>lka@icmag.ch</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RED Global</t>
+          <t>IT Professionals AG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Zainab Siddiqui</t>
+          <t>Svitlana Bilova</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>zsiddiqui@redglobal.com</t>
+          <t>info@itpag.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ROSA Experts AG &amp; Co. KG</t>
+          <t>Jan Pethe Interim Management &amp; Consulting GmbH - Excellence</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kai Standfest</t>
+          <t>Sebastian Schwand</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>k.standfest@rosa-ag.de</t>
+          <t>sebastian.schwand@jpimc.de</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Randstad Digital Germany AG</t>
+          <t>MATCHPERTS GmbH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Saskia Freund</t>
+          <t>André Dathe</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>saskia.freund@randstaddigital.com</t>
+          <t>andre.dathe@matchperts.de</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Robert Half</t>
+          <t>Morgan Philips Deutschland GmbH</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nadine Almutaz</t>
+          <t>Maksim Gerassimov</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nadine.almutaz@roberthalf.de</t>
+          <t>maksim.gerassimov@morganphilips.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLCOM GmbH</t>
+          <t>NEO - Professional Solutions GmbH</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SOLCOM Projektpartnermanagement</t>
+          <t>Volkan Alpaslan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>bewerbung@solcom.de</t>
+          <t>v.alpaslan@neo-experts.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOMI Experts GmbH</t>
+          <t>NEO - Professional Solutions GmbH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Janine Edayadiyil</t>
+          <t>Fabian Cavadias</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Janine.Edayadiyil@somi.de</t>
+          <t>f.cavadias@neo-experts.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOMI Experts GmbH</t>
+          <t>NEO - Professional Solutions GmbH</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sabina Novikova</t>
+          <t>Yalcin Demir</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sabina.novikova@somi.de</t>
+          <t>y.demir@neo-experts.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Synsero Experts GmbH</t>
+          <t>NES Global GmbH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Florian Lange</t>
+          <t>Gloria Sorda</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>lange@synsero.de</t>
+          <t>gloria.sorda@nesfircroft.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tenth Revolution Group</t>
+          <t>Niederlassung Berlin Public</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mira Schmidt</t>
+          <t>Roy-Marvin Laumer</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>m.schmidt@washingtonfrank.com</t>
+          <t>Roy-Marvin.Laumer@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tergos GmbH</t>
+          <t>Niederlassung Darmstadt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sebastián Pérez</t>
+          <t>Janek Seibold</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sperez@tergos.de</t>
+          <t>janek.seibold@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VISION Consulting GmbH</t>
+          <t>Niederlassung Karlsruhe CONTRACT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jacqueline Stremmel</t>
+          <t>André Reimer</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>projektbewerbung@vc-g.de</t>
+          <t>andre.reimer@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Varius IT Informations-Technologien GmbH &amp; Co. KG</t>
+          <t>Niederlassung Kempten</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Petra Haack</t>
+          <t>Franziska Schwegler</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Petra.Haack@varius-IT.com</t>
+          <t>Franziska.Schwegler@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VirtoTech</t>
+          <t>Niederlassung Nürnberg-City</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Applications Team</t>
+          <t>Furat Abdullah</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>applications@virtotech.com</t>
+          <t>furat.abdullah@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Wavestone</t>
+          <t>Niederlassung Wien</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Selma Halilovic</t>
+          <t>Selina Bähner</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>selma.halilovic@wavestone.com</t>
+          <t>Selina.Baehner@ferchau.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>WeMatch Consulting GmbH</t>
+          <t>One Day Ahead GmbH</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Iryna Radchenko</t>
+          <t>Paul Franzke</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>i.radchenko@wematch.de</t>
+          <t>pfranzke@onedayahead.de</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Weissenberg Business Consulting GmbH</t>
+          <t>Optimus Search GmbH</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ina Strucken</t>
+          <t xml:space="preserve">Timo Kaeppler </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i.strucken@weissenberg-group.de</t>
+          <t>tkaeppler@optimussearch.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Westhouse Consulting GmbH</t>
+          <t>Outvise</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lisa Fleig</t>
+          <t>Sophie Hindennach</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>l.fleig@westhouse-consulting.com</t>
+          <t>shindennach@outvise.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Westhouse Consulting GmbH</t>
+          <t>PASS Global Consulting Alliance AG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dragan Vuckovic</t>
+          <t>Markus Korinth</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>d.vuckovic@westhouse-group.com</t>
+          <t>prm@pass-consulting.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Westhouse Consulting GmbH</t>
+          <t>Page Contracting GmbH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Elvin Cagi</t>
+          <t>Emmanuel Tatara</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>e.cagi@westhouse-group.com</t>
+          <t>emmanueltatara@pagecontracting.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Westhouse Consulting GmbH</t>
+          <t>Page Contracting GmbH</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Merve Ilkiz</t>
+          <t>Duygu Sahin</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>m.ilkiz@westhouse-group.com</t>
+          <t>DuyguTarasi.77203.1200@pagede.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Westhouse Consulting GmbH</t>
+          <t>Page Contracting GmbH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Martyna Sobotovic</t>
+          <t>Erik Tongers</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>m.sobotovic@westhouse-group.com</t>
+          <t>ErikTongers@michaelpage.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>agex IT GmbH</t>
+          <t>Peak One GmbH</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sabrina Langenbeck</t>
+          <t>Christina Hupe</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>resourcer@agex-it.de</t>
+          <t>c.hupe@peak-one.de</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>contagi INTERIM GmbH</t>
+          <t>Proclinical GmbH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Josua Runzheimer</t>
+          <t>Hutan M. Fatemi</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>josua.runzheimer@contagi.ch</t>
+          <t>h.fatemi@proclinical.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dot.concept solutions GmbH</t>
+          <t>RED Global</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dirk Otto</t>
+          <t>Mehvish Dilshad</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>dirk.otto@dot-concept.de</t>
+          <t>mdilshad.07449.1200@redcommerce.aplitrak.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>duragIS IT Consulting GmbH</t>
+          <t>RED Global</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Daniela Hammer</t>
+          <t>Ala Fischer</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>dh@duragis.de</t>
+          <t>afischer@redglobal.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eightbit experts GmbH</t>
+          <t>ROSA Experts AG &amp; Co. KG</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wolfram Schneider</t>
+          <t>Patrick Schatke</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>c114u824j312010b172@ats-eu.yourecruit.com</t>
+          <t>p.schatke@rosa-ag.de</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>eightbit experts GmbH</t>
+          <t>SECUSTAFF GmbH</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Janek Strauss</t>
+          <t>Phuong Anh Vu</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>c114u806j312011b172@ats-eu.yourecruit.com</t>
+          <t>ani.vu@secustaff.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>grandega GmbH</t>
+          <t>SINC GmbH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Silvia Griner</t>
+          <t>Bahar Eren</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>silvia.griner@grandega.de</t>
+          <t>bahar.eren@sinc.de</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>i2b pro GmbH</t>
+          <t>SOLCOM GmbH</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dominik Schwarz</t>
+          <t>SOLCOM Projektpartnermanagement</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>recruiting@i2bpro.de</t>
+          <t>bewerbung@solcom.de</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>iSAX GmbH &amp; Co. KG</t>
+          <t>Sirato Group</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ersin Burak Arslan</t>
+          <t>Sascha Antic</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>burak.arslan@isax.com</t>
+          <t>s.antic@sirato-group.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>iSAX GmbH &amp; Co. KG</t>
+          <t>SymBio Experts GmbH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Layner Sayvongsa</t>
+          <t>Jakob Wich</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>layner.sayvongsa@isax.com</t>
+          <t>j.wich@symbiorec.de</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>joyIT Recruiting GmbH</t>
+          <t>Systeme24 Staffing+Solutions GmbH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Team joyIT</t>
+          <t>Martin Claude</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>projects@joyit.de</t>
+          <t>bewerbung@systeme24.de</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mindheads GmbH</t>
+          <t>Unique Personalservice GmbH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gerd Blumenschein</t>
+          <t>Roman Sperling</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>bewerbung@mindheads.de</t>
+          <t>rsperling@unique-lifescience.de</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mund consulting AG</t>
+          <t>Uwiss Experts</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Thomas Mund</t>
+          <t>Patrick Uwiß</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>post@mund-consulting.de</t>
+          <t>Info@uwiss-recruiting.de</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>percision services GmbH</t>
+          <t>VirtoTech</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Charlin Bugge</t>
+          <t>Applications Team</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>charlin.bugge@percision.de</t>
+          <t>applications@virtotech.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>percision services GmbH</t>
+          <t>Wavestone</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vera Kosova</t>
+          <t>Elma Abdagic</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>vera.krivokapic@percision.eu</t>
+          <t>elma.abdagic@wavestone.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>softwareXperts GmbH</t>
+          <t>WeMatch Consulting GmbH</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Barbara Harrer</t>
+          <t>Luna Zlatoper</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>barbara.harrer@sw-xperts.com</t>
+          <t>l.zlatoper@wematch.de</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>softwareXperts GmbH</t>
+          <t>WeMatch Consulting GmbH</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jozef Laufer</t>
+          <t>Carolin Lins</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>jozef.laufer@sw-xperts.com</t>
+          <t>freelance.de@wematch.de</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>softwareXperts GmbH</t>
+          <t>Weissenberg Business Consulting GmbH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lenka Curcic</t>
+          <t>Ina Strucken</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>lenka.curcic@sw-xperts.com</t>
+          <t>i.strucken@weissenberg-group.de</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>sparkm GmbH &amp; Co. KG</t>
+          <t>Weissenberg Business Consulting GmbH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sonja Werner</t>
+          <t>Sebastian Koch</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>s.werner@sparkm.de</t>
+          <t>s.koch@weissenberg-group.de</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>teamative Germany GmbH</t>
+          <t>Westhouse Consulting GmbH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Johanna Jochem</t>
+          <t>Simon Borsch</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>johanna.jochem@teamative.com</t>
+          <t>s.borsch@westhouse-group.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>top itservices AG</t>
+          <t>Westhouse Consulting GmbH</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rebecca Kramer</t>
+          <t>Elvin Cagi</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Christina.Wolff@top-itservices.com</t>
+          <t>bewerbungendb@westhouse-group.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>top itservices AG</t>
+          <t>Westhouse Consulting GmbH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Allegra Vivien Letizia</t>
+          <t>Amin Kharrati</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Christina.Wolff@top-itservices.com</t>
+          <t>a.kharrati@westhouse-group.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>Westhouse Consulting GmbH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Martyna Sobotovic</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>m.sobotovic@westhouse-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Westhouse Consulting GmbH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Theresa Pauli</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>t.pauli@westhouse-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Westhouse Consulting GmbH</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Thomas Rakow</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>t.rakow@westhouse-group.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Westhouse Consulting GmbH</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Lisa Fleig</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>l.fleig@westhouse-consulting.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>agex IT GmbH</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ralph Pohlenz</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ralph.pohlenz@agex-it.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>agex IT GmbH</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sabrina Langenbeck</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>resourcer@agex-it.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>digit xperts GmbH</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Calvin Okoli</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>calvin.okoli@digit-xperts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>digit xperts GmbH</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Charlotte Hippler</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>project@digit-xperts.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>duragIS IT Consulting GmbH</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Daniela Hammer</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>dh@duragis.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>eightbit experts GmbH</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Janek Strauss</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>c114u806j312022b172@ats-eu.yourecruit.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>eightbit experts GmbH</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Jeanette Rückert</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>c114u798j312016b172@ats-eu.yourecruit.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>eightbit experts GmbH</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Tim Koenenberg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>c114u822j312019b172@ats-eu.yourecruit.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>emagine GmbH</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fabienne Seidel</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Fabienne.Seidel@emagine.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>grandega GmbH</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Silvia Griner</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>silvia.griner@grandega.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>iSAX GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ersin Burak Arslan</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>burak.arslan@isax.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mund consulting AG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Thomas Mund</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>post@mund-consulting.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>nemensis AG</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Niklas Machens</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>niklas.machens@nemensis.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>nemensis AG</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Aktimur Ünal</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Aktimur.Uenal@nemensis.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>percision services GmbH</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Julia Barysava</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Julia.Barysava@percision.eu</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>percision services GmbH</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Charlin Bugge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>charlin.bugge@percision.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teamative Germany GmbH</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Daria Rudzevych</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>daria.rudzevych@teamative.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>teamative Germany GmbH</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Johanna Jochem</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>johanna.jochem@teamative.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>top itservices AG</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Mariella Ludwig</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nik Alizadeh</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Christina.Wolff@top-itservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>top itservices AG</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Iryna Becker</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Christina.Wolff@top-itservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>top itservices AG</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Johannes Dittrich</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Christina.Wolff@top-itservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>top itservices AG</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Maurice Geiß</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Christina.Wolff@top-itservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>top itservices AG</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Natalie Tudyka</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>Christina.Wolff@top-itservices.com</t>
         </is>
